--- a/Documentacion/NuevaPuntuacion.xlsx
+++ b/Documentacion/NuevaPuntuacion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osb_000\Documents\tfg\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osb\Documents\tfg\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>CRITERIO</t>
   </si>
@@ -32,99 +32,21 @@
     <t>PUNTUACIÓN MAX-MIN</t>
   </si>
   <si>
-    <t>0-2</t>
-  </si>
-  <si>
     <t>Instalación.</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>Criterio 2: Curva de Aprendizaje.</t>
-  </si>
-  <si>
-    <t>Primeros pasos.</t>
-  </si>
-  <si>
-    <t>Funciones básicas.</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>Creación de pequeño proyecto.</t>
-  </si>
-  <si>
-    <t>Criterio 3: Documentación, tutoriales y comunidad.</t>
-  </si>
-  <si>
-    <t>Documentación ,tutoriales, y foros  oficiales.</t>
-  </si>
-  <si>
-    <t>Tutoriales y guías no oficiales.</t>
-  </si>
-  <si>
     <t>Comunidades y foros de desarrolladores.</t>
   </si>
   <si>
-    <t>Castellano.</t>
-  </si>
-  <si>
-    <t>Conocimientos previos de programación.</t>
-  </si>
-  <si>
-    <t>No necesidad de conocimiento específico.</t>
-  </si>
-  <si>
-    <t>No necesidad de conceptos de lógica de programación.</t>
-  </si>
-  <si>
-    <t>No necesidad de programación lenguaje propio.</t>
-  </si>
-  <si>
-    <t>Criterio 5: Editor Gráfico/Visual.</t>
-  </si>
-  <si>
-    <t>Editar visual propio.</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>Editor visual intuitivo.</t>
-  </si>
-  <si>
     <t>Editor visualmente atractivo, aspecto cuidado y actual.</t>
   </si>
   <si>
-    <t>Funcionamiento general.</t>
-  </si>
-  <si>
     <t>Idiomas del editor.</t>
   </si>
   <si>
-    <t>Criterio 6: Escalabilidad.</t>
-  </si>
-  <si>
-    <t>Posibilidad de crear funciones y scripts propios</t>
-  </si>
-  <si>
     <t>Add-ons y plug-ings</t>
   </si>
   <si>
-    <t>Criterio 7: Resultados profesionales.</t>
-  </si>
-  <si>
-    <t>Resultados visuales.</t>
-  </si>
-  <si>
-    <t>Diferenciación de los juegos.</t>
-  </si>
-  <si>
-    <t>Criterio 8: Estado actual.</t>
-  </si>
-  <si>
     <t>Tiempo de la última versión</t>
   </si>
   <si>
@@ -134,12 +56,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Criterio 9: Requerimientos y requisitos del sistema.  </t>
-  </si>
-  <si>
-    <t>Requisitos</t>
-  </si>
-  <si>
     <t>Sistemas operativos soportados</t>
   </si>
   <si>
@@ -167,14 +83,59 @@
     <t>Requisitos de instalación.</t>
   </si>
   <si>
-    <t>0-5</t>
+    <t>Criterio 2: Documentación, tutoriales y comunidad.</t>
+  </si>
+  <si>
+    <t>Documentación, foros y tutoriales oficiales</t>
+  </si>
+  <si>
+    <t>Análisis de los tutoriales oficiales.</t>
+  </si>
+  <si>
+    <t>Criterio 3: Funcionamiento y dificultad de uso.</t>
+  </si>
+  <si>
+    <t>Funcionamiento General</t>
+  </si>
+  <si>
+    <t>Primeros pasos</t>
+  </si>
+  <si>
+    <t>Funciones básica</t>
+  </si>
+  <si>
+    <t>Lógica de programación</t>
+  </si>
+  <si>
+    <t>Criterio 4: Editor visual e interfaz</t>
+  </si>
+  <si>
+    <t>Criterio 5: Escalabilidad</t>
+  </si>
+  <si>
+    <t>Criterio 6: Resultados profesionales.</t>
+  </si>
+  <si>
+    <t>Criterio 7: Estado actual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 8: Requerimientos y requisitos del sistema.  </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Posibilidad de crear funciones y scripts propios y/o lenguaje de programación propio. 0-4</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +164,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -230,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,17 +272,6 @@
       <top style="medium">
         <color rgb="FF9CC2E5"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF9CC2E5"/>
-      </top>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
@@ -344,14 +302,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:E56"/>
+  <dimension ref="D5:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E45" sqref="D7:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,249 +613,247 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="4:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="5" t="s">
+      <c r="E14" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="4:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="4:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,148 +861,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="7" t="s">
+    <row r="40" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="4:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D45" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D52:E52"/>
+  <mergeCells count="9">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
